--- a/GameProject29/Assets/Private/AT_Kanazawa/操作方法.xlsx
+++ b/GameProject29/Assets/Private/AT_Kanazawa/操作方法.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\コウスケ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkxpz\Documents\GameProject29Teams\GameProject29\Assets\Private\AT_Kanazawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,10 +459,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,870 +746,998 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="24.59765625" customWidth="1"/>
+    <col min="10" max="10" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
@@ -1634,134 +1762,6 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
